--- a/Resources/kosal/SQL.xlsx
+++ b/Resources/kosal/SQL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Science\gitlab\project2\newWork\senate-analysis\resources\kosal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Science\Project2\senate-analysis\Resources\kosal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249EBF43-AFED-4864-AEE9-03CD7C163D4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9FE391-06D1-4443-9EB4-F2BA1F3434A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12096" yWindow="12960" windowWidth="20640" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -309,10 +309,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,20 +596,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -637,15 +638,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -733,10 +734,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -811,10 +812,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -841,14 +842,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="D29" s="2" t="s">
+      <c r="B29" s="2"/>
+      <c r="D29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">

--- a/Resources/kosal/SQL.xlsx
+++ b/Resources/kosal/SQL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Science\Project2\senate-analysis\Resources\kosal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Science\gitlab\project2\Finalwork\senate-analysis\resources\kosal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9FE391-06D1-4443-9EB4-F2BA1F3434A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FBC666-F3A1-452D-820B-1157CF0502FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12096" yWindow="12960" windowWidth="20640" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3468" yWindow="13560" windowWidth="20640" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>SEX</t>
   </si>
@@ -262,6 +262,18 @@
   </si>
   <si>
     <t>two+</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>87+</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>lost</t>
   </si>
 </sst>
 </file>
@@ -597,7 +609,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:F35"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,6 +743,23 @@
       </c>
       <c r="E11" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">

--- a/Resources/kosal/SQL.xlsx
+++ b/Resources/kosal/SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Science\gitlab\project2\Finalwork\senate-analysis\resources\kosal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FBC666-F3A1-452D-820B-1157CF0502FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772AF39B-282B-4BA2-B112-67B19AD6E070}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3468" yWindow="13560" windowWidth="20640" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="984" yWindow="19344" windowWidth="13548" windowHeight="4812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
